--- a/matlab/experiment/27Aug/45deg/sim45deg3.xlsx
+++ b/matlab/experiment/27Aug/45deg/sim45deg3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\27Aug\45deg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ABD379-CC20-49F8-AE29-F4BC399D184D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B02F0F-48AB-4C2B-9398-FCDAC9B0486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E8652395-CEA3-4483-B15D-8F4750876557}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>S1</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>E6</t>
+  </si>
+  <si>
+    <t>Spacing</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Amplitude</t>
+  </si>
+  <si>
+    <t>Fitness</t>
   </si>
 </sst>
 </file>
@@ -7467,15 +7479,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>358140</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7490,7 +7502,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9768840" y="175260"/>
+          <a:off x="10111740" y="114300"/>
           <a:ext cx="3489960" cy="3208020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7666,7 +7678,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>8 deg from target</a:t>
+            <a:t>10 deg from target</a:t>
           </a:r>
           <a:endParaRPr lang="en-ZA">
             <a:effectLst/>
@@ -7681,16 +7693,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>129541</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121921</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>274321</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>151071</xdr:rowOff>
+      <xdr:rowOff>158691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7713,7 +7725,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5615941" y="0"/>
+          <a:off x="6217921" y="7620"/>
           <a:ext cx="3802380" cy="3442911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7726,15 +7738,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>106681</xdr:colOff>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>464821</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>20951</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7757,8 +7769,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106681" y="0"/>
-          <a:ext cx="5234940" cy="2947031"/>
+          <a:off x="30480" y="30480"/>
+          <a:ext cx="6164580" cy="3470375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7772,13 +7784,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7808,15 +7820,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:colOff>510540</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7846,15 +7858,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7884,15 +7896,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7922,15 +7934,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:colOff>297180</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8257,14 +8269,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A060E27-64E9-4AAA-97D0-A5CA50D582C8}">
-  <dimension ref="A1"/>
+  <dimension ref="B21:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="D21">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="E21">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="F21">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G21">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D22">
+        <v>239.5</v>
+      </c>
+      <c r="E22">
+        <v>112.8</v>
+      </c>
+      <c r="F22">
+        <v>313.7</v>
+      </c>
+      <c r="G22">
+        <v>218.7</v>
+      </c>
+      <c r="H22">
+        <v>106.7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E23">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F23">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G23">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>-4.0476846462134679</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8274,8 +8361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC9FD50-272D-4D70-B001-189698577B0A}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9150,8 +9237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21514681-0BEF-4AE9-AD4A-544645A6EEEF}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10185,8 +10272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19A3FFA-7CBD-4E5F-B3BD-5C6C80CFAA28}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11751,7 +11838,7 @@
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A18" sqref="A1:A1048576"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
